--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value513.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value513.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.042229805083562</v>
+        <v>1.230344891548157</v>
       </c>
       <c r="B1">
-        <v>1.786650217950626</v>
+        <v>2.474378824234009</v>
       </c>
       <c r="C1">
-        <v>2.599710520641093</v>
+        <v>4.022601127624512</v>
       </c>
       <c r="D1">
-        <v>2.742733564869349</v>
+        <v>2.774567127227783</v>
       </c>
       <c r="E1">
-        <v>0.8844931369750194</v>
+        <v>1.088649272918701</v>
       </c>
     </row>
   </sheetData>
